--- a/docs/LTA1_C/LTA1_C_02.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731791524.585323</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731791533.6273997</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791524.585323.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791533.6273997.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.16</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>287.76</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.599999999999966</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731791534.800401</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731791538.0839841</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791534.800401.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791538.0839841.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.02</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4199999999999591</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731791538.5635304</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731791538.5635304.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731791538.5635304.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.98</v>
       </c>
-      <c r="J5" t="n">
-        <v>285.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>286.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731791539.2085261</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731791547.795755</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791539.2085261.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791547.795755.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>131.73</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.0700000000000216</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731791550.7448502</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731791551.861717</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791550.7448502.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791551.861717.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.74</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.43</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731791553.336125</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731791565.1893556</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791553.336125.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791565.1893556.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6678.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6600</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-78.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-1.18</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731791565.728861</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731791565.728861.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731791565.728861.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6602</v>
       </c>
-      <c r="J9" t="n">
-        <v>6602</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6599</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731791565.941782</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731791577.228594</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791565.941782.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791577.228594.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>506.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>505.15</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.75</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731791577.352395</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731791577.5330508</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791577.352395.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791577.5330508.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>504.25</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>505</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.75</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731791577.833179</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731791585.907487</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791577.833179.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791585.907487.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>229.21</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>230.69</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.47999999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731791590.8630948</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731791591.1785908</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791590.8630948.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791591.1785908.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>230.45</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>229.94</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731791591.5527625</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731791605.156925</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791591.5527625.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791605.156925.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1031</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1021</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-10</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.97</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731791605.523281</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731791605.7118576</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791605.523281.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791605.7118576.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1017.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.199999999999932</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731791605.913172</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731791607.1647499</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791605.913172.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791607.1647499.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>11.857</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.868</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1251,95 +1351,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731791607.6289027</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731791607.6289027.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731791607.6289027.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.87</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>11.869</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731791607.8925855</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731791616.7146492</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791607.8925855.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791616.7146492.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>128.62</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>128.72</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731791617.3361337</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731791621.3293903</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791617.3361337.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791621.3293903.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.84</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.78</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731791621.6391218</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731791630.0934854</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791621.6391218.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791630.0934854.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>164.36</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>165.7</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.339999999999975</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731791630.4225998</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731791631.6055958</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791630.4225998.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791631.6055958.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>166.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>165.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731791634.4420266</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731791635.3249526</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791634.4420266.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791635.3249526.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>165.02</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>165.66</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1555,95 +1691,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731791635.422998</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731791635.422998.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731791635.422998.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>165.62</v>
       </c>
-      <c r="J23" t="n">
-        <v>165.62</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>165.7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731791635.994999</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731791647.4399693</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791635.994999.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791647.4399693.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>50.395</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>50.385</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1651,95 +1799,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731791648.902501</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731791648.902501.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731791648.902501.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>50.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>50.39</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731791649.8407032</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731791657.7437267</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791649.8407032.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791657.7437267.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1403.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1408</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>4.200000000000045</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1747,51 +1907,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731791658.7400894</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731791661.6402118</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791658.7400894.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791661.6402118.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1400.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1799,95 +1965,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731791662.0816152</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731791662.0816152.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731791662.0816152.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J28" t="n">
-        <v>1404.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1405.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.6000000000001364</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731791662.6730692</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731791663.4615955</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791662.6730692.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791663.4615955.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>60.38</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>61.05</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6699999999999946</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -1895,51 +2073,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731791664.9368424</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731791670.9369326</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791664.9368424.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791670.9369326.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>60.48</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>60.69</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1947,51 +2131,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731791672.0904794</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731791675.1281176</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791672.0904794.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791675.1281176.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>60.16</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.39</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.230000000000004</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731791676.1243422</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731791676.8892653</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791676.1243422.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791676.8892653.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>97.39</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2099999999999937</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731791678.1114297</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731791691.0429218</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SELG1731791678.1114297.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SELG1731791691.0429218.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>57.38</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>56.93</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.4500000000000028</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.7799999999999999</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731791691.2854922</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731791691.2854922.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731791691.2854922.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>57.07</v>
       </c>
-      <c r="J34" t="n">
-        <v>57.07</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>57.13</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731791691.8911183</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731791699.894028</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791691.8911183.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791699.894028.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>142.7</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>144.94</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.240000000000009</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>1.57</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731791700.0150359</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731791701.1747549</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791700.0150359.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791701.1747549.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>146.18</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>145.36</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731791703.3132777</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731791704.0852485</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791703.3132777.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791704.0852485.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>144.5</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>145.94</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.439999999999998</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731791704.8389025</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731791705.0392578</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791704.8389025.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791705.0392578.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>145.98</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>145.22</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731791705.7887087</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731791706.2595208</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791705.7887087.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791706.2595208.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>20.764</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>21.112</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.347999999999999</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>1.68</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731791707.3252742</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731791713.630602</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791707.3252742.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791713.630602.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>20.84</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>21.159</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3189999999999991</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -2459,51 +2703,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731791714.6575391</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731791716.8609395</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791714.6575391.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791716.8609395.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>20.672</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>20.839</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.166999999999998</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -2511,95 +2761,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731791717.075344</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731791717.075344.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731791717.075344.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>20.879</v>
       </c>
-      <c r="J42" t="n">
-        <v>20.879</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>20.902</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.02299999999999969</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731791718.0896623</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731791727.7015605</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791718.0896623.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791727.7015605.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>677.25</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>673.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-3.950000000000045</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -2607,95 +2869,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731791729.2506535</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731791729.2506535.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731791729.2506535.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>673.9</v>
       </c>
-      <c r="J44" t="n">
-        <v>673.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>677.45</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-3.550000000000068</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731791731.7409291</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731791733.5754128</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791731.7409291.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791733.5754128.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.09926000000000001</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.10018</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.0009199999999999903</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.9299999999999999</v>
       </c>
     </row>
@@ -2703,51 +2977,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731791733.8503582</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731791735.6290941</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791733.8503582.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791735.6290941.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.10084</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K46" t="n">
-        <v>0.001160000000000008</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
+        <v>0.001159999999999994</v>
+      </c>
+      <c r="N46" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2755,51 +3035,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731791736.9881673</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731791739.0717766</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791736.9881673.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791739.0717766.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.099</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.09984000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.0008400000000000074</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -2807,51 +3093,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731791740.0428817</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731791743.7574563</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791740.0428817.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791743.7574563.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.09896000000000001</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.09920000000000001</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.0002400000000000041</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2859,51 +3151,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731791744.7383451</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731791751.6700044</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731791744.7383451.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731791751.6700044.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.5979</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.6029</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.005000000000000004</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -2911,51 +3209,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731791756.8760536</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731791757.2845743</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791756.8760536.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791757.2845743.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2992</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>10.34999999999991</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2963,51 +3267,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731791757.5582473</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731791757.943116</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791757.5582473.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791757.943116.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2999.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2987.9</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>11.5</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3015,51 +3325,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731791758.97525</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731791764.1032877</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791758.97525.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791764.1032877.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2981</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2968.05</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-12.94999999999982</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -3067,51 +3383,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731791765.1067796</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731791766.3900692</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791765.1067796.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791766.3900692.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2972.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2970.05</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>2.75</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3119,51 +3441,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731791766.7518759</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731791769.9773905</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791766.7518759.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791769.9773905.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2960.5</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2964.65</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>4.150000000000091</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3171,51 +3499,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731791770.12829</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731791770.2272887</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791770.12829.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791770.2272887.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2966</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2964.4</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3223,95 +3557,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731791770.552365</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731791770.552365.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731791770.552365.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2966</v>
       </c>
-      <c r="J56" t="n">
-        <v>2966</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>2965.3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.6999999999998181</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731791771.373483</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731791779.3960035</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731791771.373483.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731791779.3960035.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>34.43</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>34.53</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3319,43 +3665,49 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731791780.1072292</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731791780.1072292.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731791780.1072292.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>34.22</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>34.22</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3417,19 +3769,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.40000000000009</v>
+        <v>18.09999999999991</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.485714285714299</v>
+        <v>2.585714285714273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -3439,13 +3791,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00316000000000001</v>
+        <v>0.003159999999999996</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007900000000000025</v>
+        <v>0.000789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>3.17</v>
@@ -3483,19 +3835,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.579999999999956</v>
+        <v>3.499999999999972</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8949999999999889</v>
+        <v>0.8749999999999929</v>
       </c>
       <c r="E5" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -3505,19 +3857,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8339999999999961</v>
+        <v>0.8109999999999964</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.208499999999999</v>
+        <v>0.2027499999999991</v>
       </c>
       <c r="E6" t="n">
-        <v>4.02</v>
+        <v>3.91</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
@@ -3527,19 +3879,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.600000000000136</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.200000000000045</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -3549,19 +3901,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.019999999999925</v>
+        <v>1.759999999999934</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6733333333333084</v>
+        <v>0.5866666666666447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.71</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -3637,19 +3989,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.950000000000045</v>
+        <v>-7.500000000000114</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.975000000000023</v>
+        <v>-3.750000000000057</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.58</v>
+        <v>-1.11</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.29</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="13">
@@ -3659,19 +4011,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4500000000000028</v>
+        <v>-0.5100000000000051</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2250000000000014</v>
+        <v>-0.2550000000000026</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7799999999999999</v>
+        <v>-0.8899999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.39</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="14">
@@ -3747,19 +4099,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01100000000000101</v>
+        <v>0.01200000000000045</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005500000000000504</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
@@ -3791,19 +4143,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01000000000000512</v>
+        <v>-7.105427357601002e-15</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.005000000000002558</v>
+        <v>-3.552713678800501e-15</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3813,19 +4165,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-78.5</v>
+        <v>-75.5</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-39.25</v>
+        <v>-37.75</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.18</v>
+        <v>-1.13</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.59</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="21">
